--- a/biology/Zoologie/Achalinus/Achalinus.xlsx
+++ b/biology/Zoologie/Achalinus/Achalinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achalinus est un genre de serpents de la famille des Xenodermatidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achalinus est un genre de serpents de la famille des Xenodermatidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 28 espèces de ce genre se rencontrent en Asie de l'Est et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 28 espèces de ce genre se rencontrent en Asie de l'Est et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,37 +556,39 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (08 mars 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (08 mars 2024) :
 Achalinus ater Bourret, 1937
-Achalinus dabieshanensis Zhang et al., 2023[3]
-Achalinus damingensis Yang et al., 2023[4]
-Achalinus dehuaensis Li et al., 2021[5]
-Achalinus emilyae Ziegler et al., 2019[6]
+Achalinus dabieshanensis Zhang et al., 2023
+Achalinus damingensis Yang et al., 2023
+Achalinus dehuaensis Li et al., 2021
+Achalinus emilyae Ziegler et al., 2019
 Achalinus formosanus Boulenger, 1908
 Achalinus hainanus Huang, 1975
-Achalinus huangjietangi Huang et al., 2021[7]
-Achalinus hunanensis Ma et al., 2023[8]
+Achalinus huangjietangi Huang et al., 2021
+Achalinus hunanensis Ma et al., 2023
 Achalinus jinggangensis (Zong &amp; Ma, 1983)
-Achalinus juliani Ziegler et al., 2019[6]
+Achalinus juliani Ziegler et al., 2019
 Achalinus meiguensis Hu &amp; Zhao, 1966
-Achalinus nanshanensis Li et al., 2024[9]
+Achalinus nanshanensis Li et al., 2024
 Achalinus niger Maki, 1931
-Achalinus ningshanensis Yang et al., 2022[10]
-Achalinus panzhihuaensis Hou et al., 2021[11]
-Achalinus pingbianensis Li et al., 2020[12]
-Achalinus quangi Pham et al., 2023[13]
+Achalinus ningshanensis Yang et al., 2022
+Achalinus panzhihuaensis Hou et al., 2021
+Achalinus pingbianensis Li et al., 2020
+Achalinus quangi Pham et al., 2023
 Achalinus rufescens Boulenger, 1888
-Achalinus sheni Ma et al., 2023[14]
+Achalinus sheni Ma et al., 2023
 Achalinus spinalis Peters, 1869
-Achalinus timi Ziegler et al., 2019[6]
-Achalinus tranganensis Luu et al., 2020[15]
-Achalinus vanhoensis Van Ha et al., 2022[16]
+Achalinus timi Ziegler et al., 2019
+Achalinus tranganensis Luu et al., 2020
+Achalinus vanhoensis Van Ha et al., 2022
 Achalinus werneri Van Denburgh, 1912
-Achalinus yangdatongi Hou et al.[11], 2021
+Achalinus yangdatongi Hou et al., 2021
 Achalinus yunkaiensis Wang, Li &amp; Wang, 2019
-Achalinus zugorum Miller et al., 2020[17],[18],[19]</t>
+Achalinus zugorum Miller et al., 2020</t>
         </is>
       </c>
     </row>
@@ -600,7 +616,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).</t>
         </is>
